--- a/documents/governance/FMG/FHIR May QA Template.xlsx
+++ b/documents/governance/FMG/FHIR May QA Template.xlsx
@@ -11,6 +11,7 @@
     <sheet name="Lookups" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Review!$A$4:$D$100</definedName>
     <definedName name="Resources">Lookups!$A$2:$A$47</definedName>
     <definedName name="Topics">Lookups!$B$2:$B$8</definedName>
   </definedNames>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
   <si>
     <t>Resource</t>
   </si>
@@ -196,6 +197,12 @@
   </si>
   <si>
     <t>_General</t>
+  </si>
+  <si>
+    <t>Reviewer</t>
+  </si>
+  <si>
+    <t>Topic</t>
   </si>
 </sst>
 </file>
@@ -567,52 +574,1212 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:D100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="123.140625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="20.140625" style="4" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="4" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="123.140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D2" s="3"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="str">
+        <f>D$1</f>
+        <v>[put your name here]</v>
+      </c>
+      <c r="B5" s="4">
+        <f>D$2</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="str">
+        <f t="shared" ref="A6:A69" si="0">D$1</f>
+        <v>[put your name here]</v>
+      </c>
+      <c r="B6" s="4">
+        <f t="shared" ref="B6:B69" si="1">D$2</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>[put your name here]</v>
+      </c>
+      <c r="B7" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>[put your name here]</v>
+      </c>
+      <c r="B8" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>[put your name here]</v>
+      </c>
+      <c r="B9" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>[put your name here]</v>
+      </c>
+      <c r="B10" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>[put your name here]</v>
+      </c>
+      <c r="B11" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>[put your name here]</v>
+      </c>
+      <c r="B12" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>[put your name here]</v>
+      </c>
+      <c r="B13" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>[put your name here]</v>
+      </c>
+      <c r="B14" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>[put your name here]</v>
+      </c>
+      <c r="B15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>[put your name here]</v>
+      </c>
+      <c r="B16" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>[put your name here]</v>
+      </c>
+      <c r="B17" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>[put your name here]</v>
+      </c>
+      <c r="B18" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>[put your name here]</v>
+      </c>
+      <c r="B19" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>[put your name here]</v>
+      </c>
+      <c r="B20" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>[put your name here]</v>
+      </c>
+      <c r="B21" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>[put your name here]</v>
+      </c>
+      <c r="B22" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>[put your name here]</v>
+      </c>
+      <c r="B23" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>[put your name here]</v>
+      </c>
+      <c r="B24" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>[put your name here]</v>
+      </c>
+      <c r="B25" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>[put your name here]</v>
+      </c>
+      <c r="B26" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>[put your name here]</v>
+      </c>
+      <c r="B27" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>[put your name here]</v>
+      </c>
+      <c r="B28" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>[put your name here]</v>
+      </c>
+      <c r="B29" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>[put your name here]</v>
+      </c>
+      <c r="B30" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>[put your name here]</v>
+      </c>
+      <c r="B31" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>[put your name here]</v>
+      </c>
+      <c r="B32" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>[put your name here]</v>
+      </c>
+      <c r="B33" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>[put your name here]</v>
+      </c>
+      <c r="B34" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>[put your name here]</v>
+      </c>
+      <c r="B35" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>[put your name here]</v>
+      </c>
+      <c r="B36" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>[put your name here]</v>
+      </c>
+      <c r="B37" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>[put your name here]</v>
+      </c>
+      <c r="B38" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>[put your name here]</v>
+      </c>
+      <c r="B39" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>[put your name here]</v>
+      </c>
+      <c r="B40" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>[put your name here]</v>
+      </c>
+      <c r="B41" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>[put your name here]</v>
+      </c>
+      <c r="B42" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>[put your name here]</v>
+      </c>
+      <c r="B43" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>[put your name here]</v>
+      </c>
+      <c r="B44" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>[put your name here]</v>
+      </c>
+      <c r="B45" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>[put your name here]</v>
+      </c>
+      <c r="B46" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>[put your name here]</v>
+      </c>
+      <c r="B47" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>[put your name here]</v>
+      </c>
+      <c r="B48" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>[put your name here]</v>
+      </c>
+      <c r="B49" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>[put your name here]</v>
+      </c>
+      <c r="B50" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>[put your name here]</v>
+      </c>
+      <c r="B51" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>[put your name here]</v>
+      </c>
+      <c r="B52" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>[put your name here]</v>
+      </c>
+      <c r="B53" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>[put your name here]</v>
+      </c>
+      <c r="B54" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>[put your name here]</v>
+      </c>
+      <c r="B55" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>[put your name here]</v>
+      </c>
+      <c r="B56" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>[put your name here]</v>
+      </c>
+      <c r="B57" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>[put your name here]</v>
+      </c>
+      <c r="B58" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>[put your name here]</v>
+      </c>
+      <c r="B59" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>[put your name here]</v>
+      </c>
+      <c r="B60" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>[put your name here]</v>
+      </c>
+      <c r="B61" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>[put your name here]</v>
+      </c>
+      <c r="B62" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>[put your name here]</v>
+      </c>
+      <c r="B63" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>[put your name here]</v>
+      </c>
+      <c r="B64" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>[put your name here]</v>
+      </c>
+      <c r="B65" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>[put your name here]</v>
+      </c>
+      <c r="B66" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>[put your name here]</v>
+      </c>
+      <c r="B67" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>[put your name here]</v>
+      </c>
+      <c r="B68" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>[put your name here]</v>
+      </c>
+      <c r="B69" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="str">
+        <f t="shared" ref="A70:A99" si="2">D$1</f>
+        <v>[put your name here]</v>
+      </c>
+      <c r="B70" s="4">
+        <f t="shared" ref="B70:B99" si="3">D$2</f>
+        <v>0</v>
+      </c>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>[put your name here]</v>
+      </c>
+      <c r="B71" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>[put your name here]</v>
+      </c>
+      <c r="B72" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>[put your name here]</v>
+      </c>
+      <c r="B73" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>[put your name here]</v>
+      </c>
+      <c r="B74" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>[put your name here]</v>
+      </c>
+      <c r="B75" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>[put your name here]</v>
+      </c>
+      <c r="B76" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>[put your name here]</v>
+      </c>
+      <c r="B77" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>[put your name here]</v>
+      </c>
+      <c r="B78" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>[put your name here]</v>
+      </c>
+      <c r="B79" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>[put your name here]</v>
+      </c>
+      <c r="B80" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>[put your name here]</v>
+      </c>
+      <c r="B81" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>[put your name here]</v>
+      </c>
+      <c r="B82" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>[put your name here]</v>
+      </c>
+      <c r="B83" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>[put your name here]</v>
+      </c>
+      <c r="B84" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>[put your name here]</v>
+      </c>
+      <c r="B85" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>[put your name here]</v>
+      </c>
+      <c r="B86" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>[put your name here]</v>
+      </c>
+      <c r="B87" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>[put your name here]</v>
+      </c>
+      <c r="B88" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>[put your name here]</v>
+      </c>
+      <c r="B89" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>[put your name here]</v>
+      </c>
+      <c r="B90" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C90" s="3"/>
+      <c r="D90" s="3"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>[put your name here]</v>
+      </c>
+      <c r="B91" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>[put your name here]</v>
+      </c>
+      <c r="B92" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>[put your name here]</v>
+      </c>
+      <c r="B93" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>[put your name here]</v>
+      </c>
+      <c r="B94" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C94" s="3"/>
+      <c r="D94" s="3"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>[put your name here]</v>
+      </c>
+      <c r="B95" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>[put your name here]</v>
+      </c>
+      <c r="B96" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>[put your name here]</v>
+      </c>
+      <c r="B97" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>[put your name here]</v>
+      </c>
+      <c r="B98" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C98" s="3"/>
+      <c r="D98" s="3"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>[put your name here]</v>
+      </c>
+      <c r="B99" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C99" s="3"/>
+      <c r="D99" s="3"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="4" t="str">
+        <f>D$1</f>
+        <v>[put your name here]</v>
+      </c>
+      <c r="B100" s="4">
+        <f>D$2</f>
+        <v>0</v>
+      </c>
+      <c r="C100" s="3"/>
+      <c r="D100" s="3"/>
     </row>
   </sheetData>
+  <autoFilter ref="A4:D100"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
       <formula1>Topics</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C100">
       <formula1>Resources</formula1>
     </dataValidation>
   </dataValidations>
